--- a/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
@@ -559,22 +559,22 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Required pediatrics (Total)</t>
+          <t>Required PEDIATRICS (Total)</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>Attended pediatrics (Total)</t>
+          <t>Attended PEDIATRICS (Total)</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>pediatrics S1 (Req)</t>
+          <t>PEDIATRICS S1 (Req)</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>pediatrics S1 (Att)</t>
+          <t>PEDIATRICS S1 (Att)</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary_updated" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Attendance_updated" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Transfers_updated" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transfers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary_updated'!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance_updated'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers_updated'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -87915,7 +87915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -87932,6 +87932,7 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -87965,9 +87966,14 @@
           <t>Transfer Date</t>
         </is>
       </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
@@ -9,12 +9,10 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Attendance" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Transfers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Transfers'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -87907,73 +87905,4 @@
   <autoFilter ref="A1:K1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Group Before</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Group After</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Transfer Date</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
@@ -490,8 +490,8 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="13.5" customWidth="1" min="13" max="13"/>
     <col width="13.5" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="22.5" customWidth="1" min="15" max="15"/>
+    <col width="22.5" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1">
@@ -567,12 +567,12 @@
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>PEDIATRICS S1 (Req)</t>
+          <t>PEDIATRICS S1 on 11/09/2025 at 08:00:00 (Req)</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>PEDIATRICS S1 (Att)</t>
+          <t>PEDIATRICS S1 on 11/09/2025 at 08:00:00 (Att)</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
@@ -490,8 +490,8 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="13.5" customWidth="1" min="13" max="13"/>
     <col width="13.5" customWidth="1" min="14" max="14"/>
-    <col width="22.5" customWidth="1" min="15" max="15"/>
-    <col width="22.5" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1">
@@ -567,12 +567,12 @@
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>PEDIATRICS S1 on 11/09/2025 at 08:00:00 (Req)</t>
+          <t>PEDIATRICS S1 (Req)</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>PEDIATRICS S1 on 11/09/2025 at 08:00:00 (Att)</t>
+          <t>PEDIATRICS S1 (Att)</t>
         </is>
       </c>
     </row>

--- a/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد على محمد احمد محمد </t>
+          <t>محمد على محمد احمد محمد</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>نصر الدين  الابراهيم</t>
+          <t>نصر الدين الابراهيم</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -9032,7 +9032,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاجر احمد رمضان سعد الفرحاتى </t>
+          <t>هاجر احمد رمضان سعد الفرحاتى</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve">يحيى محمد يحى على </t>
+          <t>يحيى محمد يحى على</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله مسعود مصطفى </t>
+          <t>عبد الله مسعود مصطفى</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد عبده علوي محمد </t>
+          <t>محمد عبده علوي محمد</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve">ديما حسن نصر الله الزاملي </t>
+          <t>ديما حسن نصر الله الزاملي</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">سعيد احمد سعيد محمد عبدالسيد </t>
+          <t>سعيد احمد سعيد محمد عبدالسيد</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve">مبارك حسن ابراهيم </t>
+          <t>مبارك حسن ابراهيم</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve">مي سلوم سالم لم يصعد </t>
+          <t>مي سلوم سالم لم يصعد</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>احمد محمد اسامة  احمد عبدالخالق احمد</t>
+          <t>احمد محمد اسامة احمد عبدالخالق احمد</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">ادهم عامر عبدالحافظ احمد محمد </t>
+          <t>ادهم عامر عبدالحافظ احمد محمد</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve">اسراء احمد محمد عبد الصادق نور </t>
+          <t>اسراء احمد محمد عبد الصادق نور</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve">اسراء هشام محمد عبد المنعم </t>
+          <t>اسراء هشام محمد عبد المنعم</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>امنيه  سلامه  عبده محمد</t>
+          <t>امنيه سلامه عبده محمد</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -15816,7 +15816,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>امينه خالد عوض عفيفى  تاج الدين</t>
+          <t>امينه خالد عوض عفيفى تاج الدين</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>إيريني  وجدي عزمي عبدالمسيح</t>
+          <t>إيريني وجدي عزمي عبدالمسيح</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -16712,7 +16712,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>بسملة  وسام صلاح أحمد</t>
+          <t>بسملة وسام صلاح أحمد</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>بلال  لبيب  يسري عبد اللطيف عبد الغني</t>
+          <t>بلال لبيب يسري عبد اللطيف عبد الغني</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -16904,7 +16904,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>تسنيم  اسامة يوسف نعيم</t>
+          <t>تسنيم اسامة يوسف نعيم</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>توماس  نبيل سامي غطاس</t>
+          <t>توماس نبيل سامي غطاس</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>جودي  احمد  السيد  سليمان</t>
+          <t>جودي احمد السيد سليمان</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -17480,7 +17480,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>جونى  سامر صفوت فهمى ميخائيل</t>
+          <t>جونى سامر صفوت فهمى ميخائيل</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>حلا احمد محمد محمد  فضل الله</t>
+          <t>حلا احمد محمد محمد فضل الله</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>دارين  أحمد فرج القاصد</t>
+          <t>دارين أحمد فرج القاصد</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>دارين السيد  مصيلحي مصيلحي</t>
+          <t>دارين السيد مصيلحي مصيلحي</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>دانه  عبداللطيف فؤاد زيان</t>
+          <t>دانه عبداللطيف فؤاد زيان</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>دينا  ناجي عبد المنعم الشيخ</t>
+          <t>دينا ناجي عبد المنعم الشيخ</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>سارة  علاءالدين احمد محمد</t>
+          <t>سارة علاءالدين احمد محمد</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ساره  عاطف  محمد  الصادق</t>
+          <t>ساره عاطف محمد الصادق</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -19400,7 +19400,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ساره  نسيم فرج بكر</t>
+          <t>ساره نسيم فرج بكر</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>سما  حسام الدين  عبدالفتاح محمود ناصف</t>
+          <t>سما حسام الدين عبدالفتاح محمود ناصف</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>سما ممدوح حسن عطيه ممدوح حسن عطيه  حسن عطيه القاضي  عطيه القاضي</t>
+          <t>سما ممدوح حسن عطيه ممدوح حسن عطيه حسن عطيه القاضي عطيه القاضي</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>شاهي  أحمد  محمد عز الدين ابراهيم مهران</t>
+          <t>شاهي أحمد محمد عز الدين ابراهيم مهران</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>عبد الرحمن  علاء  فهمى سرج</t>
+          <t>عبد الرحمن علاء فهمى سرج</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -21128,7 +21128,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>عبدالرحمن  احمد سعد محمد عبدالخالق</t>
+          <t>عبدالرحمن احمد سعد محمد عبدالخالق</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>عبدالرحمن  محمد  سيد حنتيره</t>
+          <t>عبدالرحمن محمد سيد حنتيره</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>عمر حمدي محمد  طه</t>
+          <t>عمر حمدي محمد طه</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>لجين عمرو عبدالرازق  محمد الطاهر</t>
+          <t>لجين عمرو عبدالرازق محمد الطاهر</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -22472,7 +22472,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ميرا اشرف  بساده  سعيد</t>
+          <t>ميرا اشرف بساده سعيد</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -22536,7 +22536,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>نور عمرو  محمد احمد  حسن</t>
+          <t>نور عمرو محمد احمد حسن</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> عزام عبد الله على حسن الحكمى</t>
+          <t>عزام عبد الله على حسن الحكمى</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -25288,7 +25288,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفى امين غانم  </t>
+          <t>مصطفى امين غانم</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t xml:space="preserve">نور ماجد فايز ابو جامع </t>
+          <t>نور ماجد فايز ابو جامع</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -26056,7 +26056,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t xml:space="preserve">فادى نواف الحريرى </t>
+          <t>فادى نواف الحريرى</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -26312,7 +26312,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد رياض محمد صافى </t>
+          <t>احمد رياض محمد صافى</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -26888,7 +26888,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>فاطمة الزهراء  محمد ابراهيم راجح</t>
+          <t>فاطمة الزهراء محمد ابراهيم راجح</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -27528,7 +27528,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>محمد  عبد الفتاح  عبد البديع فياض</t>
+          <t>محمد عبد الفتاح عبد البديع فياض</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -27784,7 +27784,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>محمد خلف  سلمان  سلطان</t>
+          <t>محمد خلف سلمان سلطان</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -28488,7 +28488,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>مريم  عمرو  محمد عادل  عبد الرحمن</t>
+          <t>مريم عمرو محمد عادل عبد الرحمن</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -28936,7 +28936,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>مي محمد عبد المنعم  محمد بكر</t>
+          <t>مي محمد عبد المنعم محمد بكر</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -29000,7 +29000,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ميار  طه يوسف عمار</t>
+          <t>ميار طه يوسف عمار</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -29064,7 +29064,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>مينا مدحت خلف ناشد  سليمان</t>
+          <t>مينا مدحت خلف ناشد سليمان</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -29256,7 +29256,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>نور  أحمد  سمير علي</t>
+          <t>نور أحمد سمير علي</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -29512,7 +29512,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>هدى ابوالخير  عبدالعظيم سكرمه</t>
+          <t>هدى ابوالخير عبدالعظيم سكرمه</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -29640,7 +29640,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>يوسف  ابراهيم  محمود محمود محمد سالم</t>
+          <t>يوسف ابراهيم محمود محمود محمد سالم</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -29704,7 +29704,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>يوسف  احمد احمد النجار</t>
+          <t>يوسف احمد احمد النجار</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>يوسف  احمد السيد رفاعي دراز</t>
+          <t>يوسف احمد السيد رفاعي دراز</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -29832,7 +29832,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>يوسف  ايهاب  محمد  مصطفي</t>
+          <t>يوسف ايهاب محمد مصطفي</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -30856,7 +30856,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمار عبد الله محمد العيسوي </t>
+          <t>عمار عبد الله محمد العيسوي</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -31688,7 +31688,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد عمار غنام لم يصعد </t>
+          <t>احمد عمار غنام لم يصعد</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -32328,7 +32328,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفى فهد عبد الباقى  </t>
+          <t>مصطفى فهد عبد الباقى</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -32392,7 +32392,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t xml:space="preserve">بشير طراد الحراكىى </t>
+          <t>بشير طراد الحراكىى</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -32520,7 +32520,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t xml:space="preserve">موسى جيله حسن </t>
+          <t>موسى جيله حسن</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -32584,7 +32584,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم سليمان جديد </t>
+          <t>ابراهيم سليمان جديد</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -32712,7 +32712,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t xml:space="preserve">روند نائل محمد زايدة </t>
+          <t>روند نائل محمد زايدة</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -33672,7 +33672,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبدالحي عبدالمنعم الشيباني  </t>
+          <t>عبدالحي عبدالمنعم الشيباني</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -33800,7 +33800,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسام عمار عبدالله جعوان  </t>
+          <t>حسام عمار عبدالله جعوان</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -33864,7 +33864,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين محمد حسين ابو مغصيب   </t>
+          <t>حسين محمد حسين ابو مغصيب</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -33928,7 +33928,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t xml:space="preserve">تركي محمد علي الحاج </t>
+          <t>تركي محمد علي الحاج</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -33992,7 +33992,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم خليل محمد غربيه </t>
+          <t>ابراهيم خليل محمد غربيه</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -34056,7 +34056,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله فتح الرحمن محمد عمر  </t>
+          <t>عبد الله فتح الرحمن محمد عمر</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -34184,7 +34184,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفي عمر عبدالهادى محمد  </t>
+          <t>مصطفي عمر عبدالهادى محمد</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -34376,7 +34376,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t xml:space="preserve">رزان محمد الصادق على الشيخ </t>
+          <t>رزان محمد الصادق على الشيخ</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -34760,7 +34760,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t xml:space="preserve">ساره محمد محمود مالك </t>
+          <t>ساره محمد محمود مالك</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -34824,7 +34824,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t xml:space="preserve">اريام عمر الخضير  </t>
+          <t>اريام عمر الخضير</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -34952,7 +34952,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر سامي زكريا الغرابلي   </t>
+          <t>عمر سامي زكريا الغرابلي</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -36232,7 +36232,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t xml:space="preserve">ريم احمد غزال </t>
+          <t>ريم احمد غزال</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -36552,7 +36552,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t xml:space="preserve">أماني شوقي حسن احمد </t>
+          <t>أماني شوقي حسن احمد</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -36616,7 +36616,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد احمد العطا حمد </t>
+          <t>محمد احمد العطا حمد</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -36936,7 +36936,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t xml:space="preserve">شاكر خالد قسم الله الجيلانى  </t>
+          <t>شاكر خالد قسم الله الجيلانى</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -37064,7 +37064,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن اسماعيل كمال احمرو </t>
+          <t>عبد الرحمن اسماعيل كمال احمرو</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t xml:space="preserve">سليمان اياد سليمان الفليت </t>
+          <t>سليمان اياد سليمان الفليت</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -37320,7 +37320,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t xml:space="preserve">زينب عبدالغفور محمد عبدالله </t>
+          <t>زينب عبدالغفور محمد عبدالله</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -37384,7 +37384,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t xml:space="preserve">ناصر محمد ناصر علي </t>
+          <t>ناصر محمد ناصر علي</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -37640,7 +37640,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t xml:space="preserve">يمنى فيصل محمد عبدون  </t>
+          <t>يمنى فيصل محمد عبدون</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -37832,7 +37832,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
+          <t>بتول ابراهيم يوسف الزيناتي</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -37960,7 +37960,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t xml:space="preserve">على الحسن </t>
+          <t>على الحسن</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -38024,7 +38024,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان محمد فتحى محمد </t>
+          <t>مروان محمد فتحى محمد</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -38088,7 +38088,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول باسم قاووق </t>
+          <t>بتول باسم قاووق</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -38152,7 +38152,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين احمد حسين الحسن </t>
+          <t>حسين احمد حسين الحسن</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -38408,7 +38408,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
+          <t>نبا ابراهيم الزعبى</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t xml:space="preserve">بشرى فكري محمد احمد الحميدي </t>
+          <t>بشرى فكري محمد احمد الحميدي</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -38536,7 +38536,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t xml:space="preserve">كمال رامى كمال عبد العال </t>
+          <t>كمال رامى كمال عبد العال</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -39432,7 +39432,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t xml:space="preserve">رغد محمد عبدالملك الضحياني </t>
+          <t>رغد محمد عبدالملك الضحياني</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -39624,7 +39624,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t xml:space="preserve">صفيه عبدالله حامد بابكر </t>
+          <t>صفيه عبدالله حامد بابكر</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -39688,7 +39688,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t xml:space="preserve">خالد مصطفى صالحه </t>
+          <t>خالد مصطفى صالحه</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -40200,7 +40200,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t xml:space="preserve">رهف الصادق محمد حسن </t>
+          <t>رهف الصادق محمد حسن</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -40520,7 +40520,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t xml:space="preserve">بيان ادم احمد على  برشى </t>
+          <t>بيان ادم احمد على برشى</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t xml:space="preserve">خالد محمد ترياقى </t>
+          <t>خالد محمد ترياقى</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -40904,7 +40904,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t xml:space="preserve">ياسمين بابكر موسى بابكر </t>
+          <t>ياسمين بابكر موسى بابكر</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -41032,7 +41032,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابرار كمال محمد عمر </t>
+          <t>ابرار كمال محمد عمر</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -41096,7 +41096,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t xml:space="preserve">رنا محمد مصطفى على </t>
+          <t>رنا محمد مصطفى على</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -41160,7 +41160,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t xml:space="preserve">منذر عبد الله بلال مضوى </t>
+          <t>منذر عبد الله بلال مضوى</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -41288,7 +41288,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاجر طة عبد الحميد طه </t>
+          <t>هاجر طة عبد الحميد طه</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -41352,7 +41352,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الخالق عثمان عبده </t>
+          <t>عثمان عبد الخالق عثمان عبده</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -41416,7 +41416,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد المصطفى ادم داؤد على </t>
+          <t>محمد المصطفى ادم داؤد على</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -41544,7 +41544,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t xml:space="preserve">النذير احمد داؤد اسو  </t>
+          <t>النذير احمد داؤد اسو</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -41608,7 +41608,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t xml:space="preserve">صهيب عبد المنعم طه عثمان </t>
+          <t>صهيب عبد المنعم طه عثمان</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -41672,7 +41672,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن اسد الله حامد احمد </t>
+          <t>عبد الرحمن اسد الله حامد احمد</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -41800,7 +41800,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t xml:space="preserve">مهند معاوية صالح جقدولة </t>
+          <t>مهند معاوية صالح جقدولة</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -41864,7 +41864,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve">نزار باسل عبد السميع جوده </t>
+          <t>نزار باسل عبد السميع جوده</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -41992,7 +41992,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t xml:space="preserve">كريم برعى مكى برعى </t>
+          <t>كريم برعى مكى برعى</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -42248,7 +42248,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t xml:space="preserve">ليازيا الفاتح صالح ادريس </t>
+          <t>ليازيا الفاتح صالح ادريس</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -42440,7 +42440,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد الحافظ عبد الماجد هارون عبد الماجد      </t>
+          <t>محمد الحافظ عبد الماجد هارون عبد الماجد</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -42888,7 +42888,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم عبد الجليل عبد الرحمن ابراهيم </t>
+          <t>ابراهيم عبد الجليل عبد الرحمن ابراهيم</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -43528,7 +43528,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maya Naser Saleem Abubaker</t>
+          <t>Maya Naser Saleem Abubaker</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -43784,7 +43784,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر بلال احمد الشدفان </t>
+          <t>عمر بلال احمد الشدفان</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -43848,7 +43848,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد رائد محمد رفيق النتشه </t>
+          <t>احمد رائد محمد رفيق النتشه</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -43912,7 +43912,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t xml:space="preserve">المثنى جاد عاطف  </t>
+          <t>المثنى جاد عاطف</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -44040,7 +44040,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t xml:space="preserve">نايف محمد على الصغير الجلاب </t>
+          <t>نايف محمد على الصغير الجلاب</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -44104,7 +44104,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t xml:space="preserve">هديل نصر الحريرى </t>
+          <t>هديل نصر الحريرى</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -44296,7 +44296,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد عمر سلامه الحراسيس </t>
+          <t>محمد عمر سلامه الحراسيس</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -45384,7 +45384,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ياسمين مصطفى ابراهيم على السيسى</t>
+          <t>ياسمين مصطفى ابراهيم على السيسى</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -45704,7 +45704,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجد الدين محمد الجماله </t>
+          <t>مجد الدين محمد الجماله</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -45768,7 +45768,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t xml:space="preserve">فارس اسامه محمد فارس اسليم  </t>
+          <t>فارس اسامه محمد فارس اسليم</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -45960,7 +45960,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t xml:space="preserve">الاء خالد السماعيل </t>
+          <t>الاء خالد السماعيل</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -46408,7 +46408,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t xml:space="preserve">ميس عمر حسن النصيرات </t>
+          <t>ميس عمر حسن النصيرات</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -46600,7 +46600,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t xml:space="preserve">فيصل فهد عمر بافرج </t>
+          <t>فيصل فهد عمر بافرج</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -46792,7 +46792,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t xml:space="preserve">خليل عاطف محمد خليل طبش </t>
+          <t>خليل عاطف محمد خليل طبش</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -47496,7 +47496,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان حمزه ابراهيم زقوت </t>
+          <t>مروان حمزه ابراهيم زقوت</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -47752,7 +47752,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t xml:space="preserve">امال منذر عبد الحميد الخرابشه </t>
+          <t>امال منذر عبد الحميد الخرابشه</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -47816,7 +47816,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t xml:space="preserve">اروى مفتاح محمد خليفه  </t>
+          <t>اروى مفتاح محمد خليفه</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -47880,7 +47880,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t xml:space="preserve">نور حازم نعيم الصمادى  </t>
+          <t>نور حازم نعيم الصمادى</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -47944,7 +47944,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان عبده عبد الجليل العولقى </t>
+          <t>مروان عبده عبد الجليل العولقى</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -48008,7 +48008,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t xml:space="preserve">مرح وليد عبد الفتاح عزام </t>
+          <t>مرح وليد عبد الفتاح عزام</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -48968,7 +48968,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t xml:space="preserve">عائد احمد خليل </t>
+          <t>عائد احمد خليل</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -49032,7 +49032,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم عماد عابد عابد </t>
+          <t>ابراهيم عماد عابد عابد</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -49160,7 +49160,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohamed Mohamed Sayed Hussien </t>
+          <t>Mohamed Mohamed Sayed Hussien</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -49416,7 +49416,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t xml:space="preserve">بكر عمر محى الدين  </t>
+          <t>بكر عمر محى الدين</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -49480,7 +49480,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد صباح محمد </t>
+          <t>احمد صباح محمد</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -49544,7 +49544,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t xml:space="preserve">صافى محمد عبد </t>
+          <t>صافى محمد عبد</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -49672,7 +49672,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t xml:space="preserve">سالى محمد حسن   </t>
+          <t>سالى محمد حسن</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -49736,7 +49736,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسن ضرغام كمال </t>
+          <t>حسن ضرغام كمال</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -49800,7 +49800,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد سعد وحيد </t>
+          <t>محمد سعد وحيد</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -49864,7 +49864,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t xml:space="preserve">مينا حسنين عباس </t>
+          <t>مينا حسنين عباس</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -50248,7 +50248,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد القادر حافظ عبد القادر احمد </t>
+          <t>عبد القادر حافظ عبد القادر احمد</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -50376,7 +50376,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمود سامى محمود الجلال  </t>
+          <t>محمود سامى محمود الجلال</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -50568,7 +50568,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t xml:space="preserve">ملاذ محمد مختار حاج </t>
+          <t>ملاذ محمد مختار حاج</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -50760,7 +50760,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الوهاب محجوب على </t>
+          <t>عثمان عبد الوهاب محجوب على</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -51016,7 +51016,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve">منعمه ابراهيم محمد على </t>
+          <t>منعمه ابراهيم محمد على</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -51080,7 +51080,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد مرتضى محمد مضوى </t>
+          <t>احمد مرتضى محمد مضوى</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -51144,7 +51144,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t xml:space="preserve">اكرم محمد علاء الدين محمد </t>
+          <t>اكرم محمد علاء الدين محمد</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -51208,7 +51208,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nabeel Abdalgader Adam Ibrahim </t>
+          <t>Nabeel Abdalgader Adam Ibrahim</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -51336,7 +51336,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve">ساجد شهاب سليمان عبد الله  </t>
+          <t>ساجد شهاب سليمان عبد الله</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -51464,7 +51464,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجد احمد جمعه ابو جياب </t>
+          <t>مجد احمد جمعه ابو جياب</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -51656,7 +51656,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر ابراهيم محمد الغنيمات </t>
+          <t>عمر ابراهيم محمد الغنيمات</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -52872,7 +52872,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve">عماد عبد الكريم كامل شبير </t>
+          <t>عماد عبد الكريم كامل شبير</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -53384,7 +53384,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ichraka Mahamat Oumar </t>
+          <t>Ichraka Mahamat Oumar</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -53576,7 +53576,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن خالد سعيد السعدى  </t>
+          <t>عبد الرحمن خالد سعيد السعدى</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -53640,7 +53640,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاشم عبد الاله محمد عبد الحسن الشعبه  </t>
+          <t>هاشم عبد الاله محمد عبد الحسن الشعبه</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -53896,7 +53896,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد خالد محمد ابو عرار  </t>
+          <t>محمد خالد محمد ابو عرار</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -54600,7 +54600,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve">اياد احمد محمد ابو درويش </t>
+          <t>اياد احمد محمد ابو درويش</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -54728,7 +54728,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله عواد رفعت ابو زيد   </t>
+          <t>عبد الله عواد رفعت ابو زيد</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -54792,7 +54792,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve">صلاح الدين محمد محمود الدروبى  </t>
+          <t>صلاح الدين محمد محمود الدروبى</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -54856,7 +54856,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد منار احمد العوينى  </t>
+          <t>احمد منار احمد العوينى</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -54984,7 +54984,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve">زيد خضر يةسف ابو ناب </t>
+          <t>زيد خضر يةسف ابو ناب</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -55112,7 +55112,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve">حلا رياض حمضمض </t>
+          <t>حلا رياض حمضمض</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -55304,7 +55304,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve">فؤاد تيسير سعيد ابو اللبن  </t>
+          <t>فؤاد تيسير سعيد ابو اللبن</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -55560,7 +55560,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve">حمزه احمد فضل العزازى  </t>
+          <t>حمزه احمد فضل العزازى</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -56648,7 +56648,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve">مريم عبد المنعم الشيبانى عاشور   </t>
+          <t>مريم عبد المنعم الشيبانى عاشور</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -56712,7 +56712,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve">مرح عبد الكريم محمد قاسم </t>
+          <t>مرح عبد الكريم محمد قاسم</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -56840,7 +56840,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve">معتصم محمد فتحى مصباح العابودى  </t>
+          <t>معتصم محمد فتحى مصباح العابودى</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -59848,7 +59848,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t xml:space="preserve">شهد عبد الله محمد النور </t>
+          <t>شهد عبد الله محمد النور</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -60296,7 +60296,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد عبد الله عثمان الشيخ </t>
+          <t>احمد عبد الله عثمان الشيخ</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -60360,7 +60360,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t xml:space="preserve">لمى مسلم امام ابراهيم </t>
+          <t>لمى مسلم امام ابراهيم</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -60616,7 +60616,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t xml:space="preserve">فارس هيثم محمود الحسن    </t>
+          <t>فارس هيثم محمود الحسن</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -60744,7 +60744,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t xml:space="preserve">وفاء مرسى عبد القادر محمد  </t>
+          <t>وفاء مرسى عبد القادر محمد</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -60872,7 +60872,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t xml:space="preserve">نصر الله عامر العبد  </t>
+          <t>نصر الله عامر العبد</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -65352,7 +65352,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t xml:space="preserve">انجيلوس اسحق ثابت ميخائيل بشاى </t>
+          <t>انجيلوس اسحق ثابت ميخائيل بشاى</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -70280,7 +70280,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t xml:space="preserve">مريم يوسف </t>
+          <t>مريم يوسف</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -71240,7 +71240,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t xml:space="preserve">دانيا امتياز خان </t>
+          <t>دانيا امتياز خان</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -71432,7 +71432,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t xml:space="preserve">رقية موديببو عبدالله </t>
+          <t>رقية موديببو عبدالله</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -71752,7 +71752,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">فاطمه ابراهيم كانا </t>
+          <t>فاطمه ابراهيم كانا</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -71816,7 +71816,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t xml:space="preserve">ماهم امروز </t>
+          <t>ماهم امروز</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -72584,7 +72584,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t xml:space="preserve">فاطمة غنا مودو </t>
+          <t>فاطمة غنا مودو</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -73480,7 +73480,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t xml:space="preserve">ياسر جاويد عالم </t>
+          <t>ياسر جاويد عالم</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -73672,7 +73672,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t xml:space="preserve">موسكان </t>
+          <t>موسكان</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -73736,7 +73736,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابو بكر شيح عثمان </t>
+          <t>ابو بكر شيح عثمان</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -74056,7 +74056,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد حذيفة خان </t>
+          <t>محمد حذيفة خان</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -74312,7 +74312,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Misbah Mohi U Din </t>
+          <t>Misbah Mohi U Din</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -74504,7 +74504,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t xml:space="preserve">اميد داك سلمون </t>
+          <t>اميد داك سلمون</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -75144,7 +75144,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t xml:space="preserve">فى وش نافى سرى </t>
+          <t>فى وش نافى سرى</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -75720,7 +75720,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t xml:space="preserve">جاتلك سارجيس ويل  </t>
+          <t>جاتلك سارجيس ويل</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -75848,7 +75848,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preeti </t>
+          <t>Preeti</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -76424,7 +76424,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t xml:space="preserve">لازرى باسكاندا </t>
+          <t>لازرى باسكاندا</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -76680,7 +76680,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fathima Sana Ansari </t>
+          <t>Fathima Sana Ansari</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -76872,7 +76872,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t xml:space="preserve">حليمه تاسع </t>
+          <t>حليمه تاسع</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -77000,7 +77000,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joseph Malual Mareng Ajou </t>
+          <t>Joseph Malual Mareng Ajou</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -77192,7 +77192,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t xml:space="preserve">اديمولا محمد مصطفى </t>
+          <t>اديمولا محمد مصطفى</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
@@ -77320,7 +77320,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t xml:space="preserve">سلامة محمد </t>
+          <t>سلامة محمد</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -77640,7 +77640,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t xml:space="preserve">سهلة  فاطمة بدر  </t>
+          <t>سهلة فاطمة بدر</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -77960,7 +77960,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t xml:space="preserve">شعيب يوسف  </t>
+          <t>شعيب يوسف</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -78152,7 +78152,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t xml:space="preserve">حماد احمد خان </t>
+          <t>حماد احمد خان</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -78280,7 +78280,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t xml:space="preserve">هولى امانويل لوكيرى كمورة </t>
+          <t>هولى امانويل لوكيرى كمورة</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -78472,7 +78472,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t xml:space="preserve">ازاكو طونقكوك كوكلونق ماكير </t>
+          <t>ازاكو طونقكوك كوكلونق ماكير</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -78536,7 +78536,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t xml:space="preserve">مابور مايور شوال ميان </t>
+          <t>مابور مايور شوال ميان</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
@@ -78664,7 +78664,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد سهل تريتويدل ابونى </t>
+          <t>محمد سهل تريتويدل ابونى</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -78856,7 +78856,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t xml:space="preserve">صديق ابراهيم </t>
+          <t>صديق ابراهيم</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
@@ -78920,7 +78920,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aisha Aremu Olasubomi </t>
+          <t>Aisha Aremu Olasubomi</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
@@ -78984,7 +78984,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t xml:space="preserve">راهول لالان شوراسيا </t>
+          <t>راهول لالان شوراسيا</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
@@ -86024,7 +86024,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t xml:space="preserve">فادى جميل عبده انيس ابراهيم </t>
+          <t>فادى جميل عبده انيس ابراهيم</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -86216,7 +86216,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t xml:space="preserve">فاروق باسل العم </t>
+          <t>فاروق باسل العم</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -86792,7 +86792,7 @@
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t xml:space="preserve">مايكل هانى شفيق تادرس </t>
+          <t>مايكل هانى شفيق تادرس</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr">

--- a/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_Pediatrics_attendance.xlsx
@@ -47,7 +47,9 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A3668"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -56,7 +58,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFBFBF"/>
+        <fgColor rgb="00C5CCD9"/>
       </patternFill>
     </fill>
     <fill>
